--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -11,14 +11,14 @@
     <sheet name="数图" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数图!$A$2:$Q$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数图!$A$2:$Q$84</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="291">
   <si>
     <t>编号</t>
   </si>
@@ -5224,13 +5224,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O78" sqref="O78"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5326,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="3" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="4" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A4" s="61">
         <v>2</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="5" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="61">
         <v>3</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="6" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="61">
         <v>4</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="7" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="61">
         <v>5</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="8" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="61">
         <v>6</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="9" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A9" s="61">
         <v>7</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="10" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A10" s="61">
         <v>8</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="11" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="12" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="61">
         <v>10</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="27">
+    <row r="13" spans="1:17" s="15" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="61">
         <v>11</v>
       </c>
@@ -5894,12 +5895,16 @@
       <c r="J14" s="68"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
-      <c r="M14" s="68"/>
+      <c r="M14" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N14" s="68"/>
       <c r="O14" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P14" s="69"/>
+      <c r="P14" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q14" s="68" t="s">
         <v>165</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27">
+    <row r="17" spans="1:17" ht="27" hidden="1">
       <c r="A17" s="61">
         <v>15</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="27">
+    <row r="18" spans="1:17" ht="27" hidden="1">
       <c r="A18" s="61">
         <v>16</v>
       </c>
@@ -6076,7 +6081,7 @@
       <c r="P18" s="69"/>
       <c r="Q18" s="68"/>
     </row>
-    <row r="19" spans="1:17" ht="27">
+    <row r="19" spans="1:17" ht="27" hidden="1">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27">
+    <row r="20" spans="1:17" ht="27" hidden="1">
       <c r="A20" s="61">
         <v>18</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="27">
+    <row r="21" spans="1:17" ht="27" hidden="1">
       <c r="A21" s="61">
         <v>19</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="81">
+    <row r="22" spans="1:17" ht="81" hidden="1">
       <c r="A22" s="61">
         <v>20</v>
       </c>
@@ -6381,7 +6386,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" ht="67.5">
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="67.5" hidden="1">
       <c r="A26" s="61">
         <v>24</v>
       </c>
@@ -6428,7 +6433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" ht="40.5">
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="40.5" hidden="1">
       <c r="A27" s="61">
         <v>25</v>
       </c>
@@ -6469,7 +6474,7 @@
       <c r="P27" s="69"/>
       <c r="Q27" s="68"/>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" ht="27">
+    <row r="28" spans="1:17" s="15" customFormat="1" ht="27" hidden="1">
       <c r="A28" s="61">
         <v>26</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="61">
         <v>27</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="27">
+    <row r="30" spans="1:17" ht="27" hidden="1">
       <c r="A30" s="61">
         <v>28</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="27">
+    <row r="31" spans="1:17" ht="27" hidden="1">
       <c r="A31" s="61">
         <v>29</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="61">
         <v>30</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="27">
+    <row r="33" spans="1:17" ht="27" hidden="1">
       <c r="A33" s="61">
         <v>31</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="27">
+    <row r="34" spans="1:17" ht="27" hidden="1">
       <c r="A34" s="61">
         <v>32</v>
       </c>
@@ -6804,7 +6809,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="27">
+    <row r="35" spans="1:17" ht="27" hidden="1">
       <c r="A35" s="61">
         <v>33</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="40.5">
+    <row r="36" spans="1:17" ht="40.5" hidden="1">
       <c r="A36" s="61">
         <v>34</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="37" customFormat="1" ht="40.5">
+    <row r="38" spans="1:17" s="37" customFormat="1" ht="40.5" hidden="1">
       <c r="A38" s="61">
         <v>36</v>
       </c>
@@ -6996,7 +7001,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="37" customFormat="1">
+    <row r="39" spans="1:17" s="37" customFormat="1" hidden="1">
       <c r="A39" s="61">
         <v>37</v>
       </c>
@@ -7252,7 +7257,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="45" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A45" s="61">
         <v>43</v>
       </c>
@@ -7303,7 +7308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="46" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A46" s="61">
         <v>44</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="37" customFormat="1">
+    <row r="47" spans="1:17" s="37" customFormat="1" hidden="1">
       <c r="A47" s="61">
         <v>45</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="48" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A48" s="61">
         <v>46</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="49" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A49" s="61">
         <v>47</v>
       </c>
@@ -7528,7 +7533,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" ht="229.5">
+    <row r="51" spans="1:17" s="37" customFormat="1" ht="229.5" hidden="1">
       <c r="A51" s="61">
         <v>49</v>
       </c>
@@ -7579,7 +7584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="52" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A52" s="61">
         <v>50</v>
       </c>
@@ -7628,7 +7633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="53" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A53" s="61">
         <v>51</v>
       </c>
@@ -7761,7 +7766,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="56" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="61">
         <v>54</v>
       </c>
@@ -7808,7 +7813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="57" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A57" s="61">
         <v>55</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="58" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="61">
         <v>56</v>
       </c>
@@ -7900,7 +7905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="36" customFormat="1">
+    <row r="59" spans="1:17" s="36" customFormat="1" hidden="1">
       <c r="A59" s="61">
         <v>57</v>
       </c>
@@ -7947,7 +7952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="60" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="61">
         <v>58</v>
       </c>
@@ -8023,7 +8028,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="62" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="61">
         <v>60</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="63" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A63" s="61">
         <v>61</v>
       </c>
@@ -8125,7 +8130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="64" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="61">
         <v>62</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="38" customFormat="1" ht="40.5">
+    <row r="65" spans="1:18" s="38" customFormat="1" ht="40.5" hidden="1">
       <c r="A65" s="61">
         <v>63</v>
       </c>
@@ -8215,7 +8220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="27">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="27" hidden="1">
       <c r="A66" s="61">
         <v>64</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="27">
+    <row r="67" spans="1:18" ht="27" hidden="1">
       <c r="A67" s="61">
         <v>65</v>
       </c>
@@ -8375,7 +8380,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="40.5">
+    <row r="70" spans="1:18" ht="40.5" hidden="1">
       <c r="A70" s="61">
         <v>68</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="27">
+    <row r="77" spans="1:18" ht="27" hidden="1">
       <c r="A77" s="61">
         <v>75</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79" s="61">
         <v>77</v>
       </c>
@@ -8766,7 +8771,7 @@
       <c r="Q79" s="68"/>
       <c r="R79" s="45"/>
     </row>
-    <row r="80" spans="1:18" s="38" customFormat="1" ht="40.5">
+    <row r="80" spans="1:18" s="38" customFormat="1" ht="40.5" hidden="1">
       <c r="A80" s="61">
         <v>78</v>
       </c>
@@ -8810,7 +8815,7 @@
       </c>
       <c r="R80" s="45"/>
     </row>
-    <row r="81" spans="1:18" s="38" customFormat="1" ht="40.5">
+    <row r="81" spans="1:18" s="38" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="61">
         <v>79</v>
       </c>
@@ -8892,7 +8897,7 @@
       </c>
       <c r="R82" s="45"/>
     </row>
-    <row r="83" spans="1:18" ht="54">
+    <row r="83" spans="1:18" ht="54" hidden="1">
       <c r="A83" s="61">
         <v>81</v>
       </c>
@@ -9024,8 +9029,13 @@
       <c r="Q87" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q83">
+  <autoFilter ref="A2:Q84">
     <filterColumn colId="9"/>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="W"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="291">
   <si>
     <t>编号</t>
   </si>
@@ -5228,10 +5228,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5866,7 +5866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="67.5">
+    <row r="14" spans="1:17" ht="67.5" hidden="1">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="40.5">
+    <row r="16" spans="1:17" ht="40.5" hidden="1">
       <c r="A16" s="61">
         <v>14</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" ht="54">
+    <row r="23" spans="1:17" s="15" customFormat="1" ht="54" hidden="1">
       <c r="A23" s="61">
         <v>21</v>
       </c>
@@ -6298,12 +6298,16 @@
       <c r="J23" s="68"/>
       <c r="K23" s="61"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="68"/>
+      <c r="M23" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N23" s="68"/>
       <c r="O23" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="P23" s="69"/>
+      <c r="P23" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q23" s="68" t="s">
         <v>165</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="27">
+    <row r="37" spans="1:17" ht="27" hidden="1">
       <c r="A37" s="61">
         <v>35</v>
       </c>
@@ -7682,7 +7686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="54" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A54" s="61">
         <v>52</v>
       </c>
@@ -9031,6 +9035,9 @@
   </sheetData>
   <autoFilter ref="A2:Q84">
     <filterColumn colId="9"/>
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="16">
       <filters>
         <filter val="W"/>
@@ -9039,7 +9046,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M83 M3:M36">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="291">
   <si>
     <t>编号</t>
   </si>
@@ -5231,7 +5231,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8466,7 +8466,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="38" customFormat="1" ht="27">
+    <row r="72" spans="1:18" s="38" customFormat="1" ht="27" hidden="1">
       <c r="A72" s="61">
         <v>70</v>
       </c>
@@ -8497,15 +8497,19 @@
       <c r="J72" s="47"/>
       <c r="K72" s="47"/>
       <c r="L72" s="47"/>
-      <c r="M72" s="68"/>
+      <c r="M72" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N72" s="47"/>
       <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
+      <c r="P72" s="83">
+        <v>42841</v>
+      </c>
       <c r="Q72" s="47" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="38" customFormat="1" ht="27">
+    <row r="73" spans="1:18" s="38" customFormat="1" ht="27" hidden="1">
       <c r="A73" s="61">
         <v>71</v>
       </c>
@@ -8536,15 +8540,19 @@
       <c r="J73" s="47"/>
       <c r="K73" s="47"/>
       <c r="L73" s="47"/>
-      <c r="M73" s="68"/>
+      <c r="M73" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N73" s="47"/>
       <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
+      <c r="P73" s="83">
+        <v>42841</v>
+      </c>
       <c r="Q73" s="47" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="38" customFormat="1" ht="27">
+    <row r="74" spans="1:18" s="38" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="61">
         <v>72</v>
       </c>
@@ -8575,10 +8583,14 @@
       <c r="J74" s="47"/>
       <c r="K74" s="47"/>
       <c r="L74" s="47"/>
-      <c r="M74" s="68"/>
+      <c r="M74" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N74" s="47"/>
       <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
+      <c r="P74" s="83">
+        <v>42841</v>
+      </c>
       <c r="Q74" s="47" t="s">
         <v>278</v>
       </c>
@@ -9046,7 +9058,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M83 M3:M36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M83">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="291">
   <si>
     <t>编号</t>
   </si>
@@ -5228,10 +5228,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8712,7 +8712,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="40.5">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="61">
         <v>76</v>
       </c>
@@ -8741,12 +8741,16 @@
       <c r="J78" s="47"/>
       <c r="K78" s="47"/>
       <c r="L78" s="47"/>
-      <c r="M78" s="68"/>
+      <c r="M78" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N78" s="47"/>
       <c r="O78" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="P78" s="82"/>
+      <c r="P78" s="82">
+        <v>42841</v>
+      </c>
       <c r="Q78" s="47" t="s">
         <v>285</v>
       </c>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="292">
   <si>
     <t>编号</t>
   </si>
@@ -1485,6 +1485,10 @@
   </si>
   <si>
     <t>在出现错误时，是否能知道错误类型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5228,10 +5232,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P78" sqref="P78"/>
+      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7093,7 +7097,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="37" customFormat="1" ht="40.5">
+    <row r="41" spans="1:17" s="37" customFormat="1" ht="40.5" hidden="1">
       <c r="A41" s="61">
         <v>39</v>
       </c>
@@ -7124,12 +7128,16 @@
       <c r="J41" s="68"/>
       <c r="K41" s="61"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="68"/>
+      <c r="M41" s="68" t="s">
+        <v>291</v>
+      </c>
       <c r="N41" s="68"/>
       <c r="O41" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="P41" s="69"/>
+      <c r="P41" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q41" s="68" t="s">
         <v>165</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="54">
+    <row r="71" spans="1:18" ht="54" hidden="1">
       <c r="A71" s="61">
         <v>69</v>
       </c>
@@ -8458,10 +8466,14 @@
       <c r="J71" s="47"/>
       <c r="K71" s="47"/>
       <c r="L71" s="47"/>
-      <c r="M71" s="68"/>
+      <c r="M71" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N71" s="49"/>
       <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
+      <c r="P71" s="82">
+        <v>42841</v>
+      </c>
       <c r="Q71" s="68" t="s">
         <v>277</v>
       </c>
@@ -8595,7 +8607,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="40.5">
+    <row r="75" spans="1:18" ht="40.5" hidden="1">
       <c r="A75" s="61">
         <v>73</v>
       </c>
@@ -8624,15 +8636,19 @@
       <c r="J75" s="47"/>
       <c r="K75" s="47"/>
       <c r="L75" s="47"/>
-      <c r="M75" s="68"/>
+      <c r="M75" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N75" s="49"/>
       <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
+      <c r="P75" s="82">
+        <v>42841</v>
+      </c>
       <c r="Q75" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="40.5">
+    <row r="76" spans="1:18" ht="40.5" hidden="1">
       <c r="A76" s="61">
         <v>74</v>
       </c>
@@ -8661,10 +8677,14 @@
       <c r="J76" s="47"/>
       <c r="K76" s="47"/>
       <c r="L76" s="47"/>
-      <c r="M76" s="68"/>
+      <c r="M76" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N76" s="49"/>
       <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
+      <c r="P76" s="82">
+        <v>42841</v>
+      </c>
       <c r="Q76" s="47" t="s">
         <v>278</v>
       </c>
@@ -8712,7 +8732,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="40.5" hidden="1">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="40.5">
       <c r="A78" s="61">
         <v>76</v>
       </c>
@@ -8741,15 +8761,9 @@
       <c r="J78" s="47"/>
       <c r="K78" s="47"/>
       <c r="L78" s="47"/>
-      <c r="M78" s="68" t="s">
-        <v>148</v>
-      </c>
       <c r="N78" s="47"/>
       <c r="O78" s="47" t="s">
         <v>290</v>
-      </c>
-      <c r="P78" s="82">
-        <v>42841</v>
       </c>
       <c r="Q78" s="47" t="s">
         <v>285</v>
@@ -9062,7 +9076,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M79:M83 M52:M77">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="293">
   <si>
     <t>编号</t>
   </si>
@@ -1485,6 +1485,10 @@
   </si>
   <si>
     <t>在出现错误时，是否能知道错误类型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5232,10 +5236,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7142,7 +7146,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="37" customFormat="1" ht="40.5">
+    <row r="42" spans="1:17" s="37" customFormat="1" ht="40.5" hidden="1">
       <c r="A42" s="61">
         <v>40</v>
       </c>
@@ -7175,12 +7179,16 @@
       </c>
       <c r="K42" s="61"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="68"/>
+      <c r="M42" s="68" t="s">
+        <v>292</v>
+      </c>
       <c r="N42" s="68"/>
       <c r="O42" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="P42" s="69"/>
+      <c r="P42" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q42" s="68" t="s">
         <v>165</v>
       </c>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="297">
   <si>
     <t>编号</t>
   </si>
@@ -1493,6 +1493,22 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加菜单功能，与数图电子图书朗读保持一致，而不是与电子书txt朗读保持一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不是说和电子书保持一致，显示8个字吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5236,10 +5252,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7062,7 +7078,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="37" customFormat="1">
+    <row r="40" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A40" s="61">
         <v>38</v>
       </c>
@@ -7093,10 +7109,16 @@
       <c r="J40" s="68"/>
       <c r="K40" s="61"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="68"/>
+      <c r="M40" s="68" t="s">
+        <v>295</v>
+      </c>
       <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="69"/>
+      <c r="O40" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="P40" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q40" s="68" t="s">
         <v>165</v>
       </c>
@@ -7193,7 +7215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="43" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A43" s="61">
         <v>41</v>
       </c>
@@ -7224,17 +7246,21 @@
       <c r="J43" s="68"/>
       <c r="K43" s="61"/>
       <c r="L43" s="61"/>
-      <c r="M43" s="68"/>
+      <c r="M43" s="68" t="s">
+        <v>293</v>
+      </c>
       <c r="N43" s="68"/>
       <c r="O43" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="P43" s="69"/>
+      <c r="P43" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q43" s="68" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="37" customFormat="1" ht="40.5">
+    <row r="44" spans="1:17" s="37" customFormat="1" ht="54" hidden="1">
       <c r="A44" s="61">
         <v>42</v>
       </c>
@@ -7267,12 +7293,16 @@
       </c>
       <c r="K44" s="61"/>
       <c r="L44" s="61"/>
-      <c r="M44" s="68"/>
+      <c r="M44" s="68" t="s">
+        <v>293</v>
+      </c>
       <c r="N44" s="68"/>
       <c r="O44" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="P44" s="69"/>
+        <v>294</v>
+      </c>
+      <c r="P44" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q44" s="68" t="s">
         <v>277</v>
       </c>
@@ -7516,7 +7546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="50" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="61">
         <v>48</v>
       </c>
@@ -7545,10 +7575,14 @@
       <c r="J50" s="68"/>
       <c r="K50" s="61"/>
       <c r="L50" s="61"/>
-      <c r="M50" s="68"/>
+      <c r="M50" s="68" t="s">
+        <v>293</v>
+      </c>
       <c r="N50" s="68"/>
       <c r="O50" s="68"/>
-      <c r="P50" s="69"/>
+      <c r="P50" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q50" s="68" t="s">
         <v>165</v>
       </c>

--- a/测试单-数图_170413.xlsx
+++ b/测试单-数图_170413.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="297">
   <si>
     <t>编号</t>
   </si>
@@ -5252,10 +5252,10 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6336,7 +6336,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" ht="54">
+    <row r="24" spans="1:17" s="15" customFormat="1" ht="54" hidden="1">
       <c r="A24" s="61">
         <v>22</v>
       </c>
@@ -6365,17 +6365,21 @@
       <c r="J24" s="68"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
-      <c r="M24" s="68"/>
+      <c r="M24" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N24" s="68"/>
       <c r="O24" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="P24" s="69"/>
+      <c r="P24" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q24" s="68" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" ht="121.5">
+    <row r="25" spans="1:17" s="15" customFormat="1" ht="121.5" hidden="1">
       <c r="A25" s="61">
         <v>23</v>
       </c>
@@ -6404,12 +6408,16 @@
       <c r="J25" s="68"/>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
-      <c r="M25" s="68"/>
+      <c r="M25" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N25" s="68"/>
       <c r="O25" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="P25" s="69"/>
+      <c r="P25" s="69">
+        <v>42841</v>
+      </c>
       <c r="Q25" s="68" t="s">
         <v>165</v>
       </c>
@@ -8935,7 +8943,7 @@
       </c>
       <c r="R81" s="45"/>
     </row>
-    <row r="82" spans="1:18" s="38" customFormat="1" ht="54">
+    <row r="82" spans="1:18" s="38" customFormat="1" ht="54" hidden="1">
       <c r="A82" s="61">
         <v>80</v>
       </c>
@@ -8964,10 +8972,14 @@
       <c r="J82" s="68"/>
       <c r="K82" s="61"/>
       <c r="L82" s="61"/>
-      <c r="M82" s="68"/>
+      <c r="M82" s="68" t="s">
+        <v>148</v>
+      </c>
       <c r="N82" s="68"/>
       <c r="O82" s="68"/>
-      <c r="P82" s="82"/>
+      <c r="P82" s="82">
+        <v>42841</v>
+      </c>
       <c r="Q82" s="68" t="s">
         <v>285</v>
       </c>
